--- a/Proposal/backlog.xlsx
+++ b/Proposal/backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,26 @@
   </si>
   <si>
     <t>RNMF - non negative hypothesis + sparse noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Problems:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Data &amp; Experiments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how to use 132 dimensions?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +135,6 @@
       <color theme="1"/>
       <name val="Corbel"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
@@ -505,92 +518,127 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Proposal/backlog.xlsx
+++ b/Proposal/backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bais Dictionary Learning - low rank hypothesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NMF - non negative hypothesis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,15 +94,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>how to use 132 dimensions?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jeffrey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rachel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The data consists of single unit recordings from the 132 neurons in inferior temporal cortex (IT). </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each trial consists of 500 ms of baseline data where a monkey viewed a fixation dot, and 500 ms of data when a monkey viewed one of the 7 different images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic Dictionary Learning - low rank hypothesis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +137,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
       <name val="Corbel"/>
       <family val="2"/>
     </font>
@@ -174,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +199,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,17 +500,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="38" style="1"/>
+    <col min="3" max="3" width="38" style="1"/>
+    <col min="4" max="4" width="41.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="38" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -520,11 +538,11 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -532,81 +550,81 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -614,36 +632,51 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proposal/backlog.xlsx
+++ b/Proposal/backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>basic Dictionary Learning - low rank hypothesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Correlation Coefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poisson naïve bayes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libsvm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,13 +194,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,8 +256,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
@@ -542,7 +607,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -554,7 +619,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -564,7 +629,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -574,7 +639,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
@@ -584,7 +649,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -594,7 +659,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -604,7 +669,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -614,7 +679,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -624,59 +689,86 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
